--- a/WebsiteOptions.xlsx
+++ b/WebsiteOptions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Siteground" sheetId="1" state="visible" r:id="rId2"/>
@@ -203,7 +203,7 @@
     <t xml:space="preserve">Requires simple PHP + DB</t>
   </si>
   <si>
-    <t xml:space="preserve">3. .htaccess Protected Folders &amp; Files </t>
+    <t xml:space="preserve">2. .htaccess Protected Folders &amp; Files </t>
   </si>
   <si>
     <t xml:space="preserve">No (no roles)</t>
@@ -216,7 +216,7 @@
 No coding</t>
   </si>
   <si>
-    <t xml:space="preserve">Ugly popup
+    <t xml:space="preserve"> Popup
 No operator/supervisor logic</t>
   </si>
   <si>
@@ -256,7 +256,7 @@
 Only basic info</t>
   </si>
   <si>
-    <t xml:space="preserve">3. Camera BasicAuth (Built-in)</t>
+    <t xml:space="preserve">3. Camera BasicAuth</t>
   </si>
   <si>
     <t xml:space="preserve"> Basic (one password)</t>
@@ -275,7 +275,7 @@
 Still cannot run protected routes or command logic safely</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Server-Hosted Camera UI (BEST)</t>
+    <t xml:space="preserve">6. Server-Hosted Camera UI</t>
   </si>
   <si>
     <t xml:space="preserve">Server</t>
@@ -456,7 +456,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -648,8 +648,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -724,7 +724,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="61.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="37.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
         <v>44</v>
       </c>
@@ -775,8 +775,8 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/WebsiteOptions.xlsx
+++ b/WebsiteOptions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Siteground" sheetId="1" state="visible" r:id="rId2"/>
@@ -256,7 +256,7 @@
 Only basic info</t>
   </si>
   <si>
-    <t xml:space="preserve">3. Camera BasicAuth</t>
+    <t xml:space="preserve">2. Camera BasicAuth</t>
   </si>
   <si>
     <t xml:space="preserve"> Basic (one password)</t>
@@ -275,7 +275,7 @@
 Still cannot run protected routes or command logic safely</t>
   </si>
   <si>
-    <t xml:space="preserve">6. Server-Hosted Camera UI</t>
+    <t xml:space="preserve">3. Server-Hosted Camera UI</t>
   </si>
   <si>
     <t xml:space="preserve">Server</t>
@@ -456,7 +456,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
+      <selection pane="topLeft" activeCell="L16" activeCellId="1" sqref="A5:A6 L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -648,8 +648,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A5:A6 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -775,8 +775,8 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
